--- a/doc/test_cases_voice_to_text.xlsx
+++ b/doc/test_cases_voice_to_text.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91843\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91843\RWUVT\RWVT\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0DA02D-8F3B-4B21-9ACE-9DBB08D6DCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84077D-CDA8-47BF-9A82-49D44070841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,108 +43,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>VTT00001</t>
-  </si>
-  <si>
-    <t>VTT00002</t>
-  </si>
-  <si>
-    <t>VTT00003</t>
-  </si>
-  <si>
-    <t>VTT00004</t>
-  </si>
-  <si>
-    <t>VTT00005</t>
-  </si>
-  <si>
-    <t>VTT00006</t>
-  </si>
-  <si>
-    <t>VTT00007</t>
-  </si>
-  <si>
-    <t>VTT00008</t>
-  </si>
-  <si>
-    <t>VTT00009</t>
-  </si>
-  <si>
-    <t>VTT00010</t>
-  </si>
-  <si>
-    <t>VTT00011</t>
-  </si>
-  <si>
-    <t>VTT00012</t>
-  </si>
-  <si>
-    <t>VTT00013</t>
-  </si>
-  <si>
-    <t>VTT00014</t>
-  </si>
-  <si>
-    <t>VTT00015</t>
-  </si>
-  <si>
-    <t>VTT00016</t>
-  </si>
-  <si>
-    <t>VTT00017</t>
-  </si>
-  <si>
-    <t>VTST00001</t>
-  </si>
-  <si>
-    <t>VTST00002</t>
-  </si>
-  <si>
-    <t>VTST00003</t>
-  </si>
-  <si>
-    <t>VTST00004</t>
-  </si>
-  <si>
-    <t>VTST00005</t>
-  </si>
-  <si>
-    <t>VTST00006</t>
-  </si>
-  <si>
-    <t>VTST00007</t>
-  </si>
-  <si>
-    <t>VTST00008</t>
-  </si>
-  <si>
-    <t>VTST00009</t>
-  </si>
-  <si>
-    <t>VTST00010</t>
-  </si>
-  <si>
-    <t>VTST00011</t>
-  </si>
-  <si>
-    <t>VTST00012</t>
-  </si>
-  <si>
-    <t>VTST00013</t>
-  </si>
-  <si>
-    <t>VTST00014</t>
-  </si>
-  <si>
-    <t>VTST00015</t>
-  </si>
-  <si>
-    <t>VTST00016</t>
-  </si>
-  <si>
-    <t>VTST00017</t>
-  </si>
-  <si>
     <t>Test Function Name</t>
   </si>
   <si>
@@ -350,13 +248,115 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00001</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00002</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00003</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00004</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00005</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00006</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00007</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00008</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00009</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00010</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00011</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00012</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00013</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00014</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00015</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00016</t>
+  </si>
+  <si>
+    <t>RWS_VTT_00017</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00001</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00002</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00003</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00004</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00005</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00006</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00007</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00008</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00009</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00010</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00011</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00012</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00013</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00014</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00015</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00016</t>
+  </si>
+  <si>
+    <t>RWST_VTT_00017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -766,20 +772,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="61.5546875" customWidth="1"/>
     <col min="6" max="6" width="56.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -805,401 +811,402 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/doc/test_cases_voice_to_text.xlsx
+++ b/doc/test_cases_voice_to_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91843\RWUVT\RWVT\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84077D-CDA8-47BF-9A82-49D44070841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B6AA1-BB14-41AE-9C9C-F4A142594F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
   <si>
     <t>Requirement ID</t>
   </si>
   <si>
     <t>Testcase ID</t>
-  </si>
-  <si>
-    <t>Test Case</t>
   </si>
   <si>
     <t>Test Steps</t>
@@ -472,7 +469,7 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C10FFB67-ED81-4A22-9D0D-22845E66FB61}" name="Requirement ID"/>
     <tableColumn id="2" xr3:uid="{8302F72D-D8B0-4283-A780-CB88EE734F8C}" name="Testcase ID"/>
-    <tableColumn id="3" xr3:uid="{51EFA64E-4803-4AF8-9C28-50FA8D055D09}" name="Test Case"/>
+    <tableColumn id="3" xr3:uid="{51EFA64E-4803-4AF8-9C28-50FA8D055D09}" name="Test Function Name"/>
     <tableColumn id="4" xr3:uid="{04B6AA6F-A221-4678-A191-292F88F644BF}" name="Test Steps"/>
     <tableColumn id="5" xr3:uid="{1ED14D14-9158-496A-BEB6-C8F369DB2339}" name="Expected Output"/>
     <tableColumn id="6" xr3:uid="{C28D67B9-558D-46DC-A7B3-81E6E54DE5F4}" name="Actual Output"/>
@@ -773,7 +770,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,413 +793,413 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/test_cases_voice_to_text.xlsx
+++ b/doc/test_cases_voice_to_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91843\RWUVT\RWVT\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B6AA1-BB14-41AE-9C9C-F4A142594F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068E1E5-673F-46AD-8C5C-064F7A377C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -88,60 +88,6 @@
     <t>Test Response Format</t>
   </si>
   <si>
-    <t>Test Logging</t>
-  </si>
-  <si>
-    <t>Check if the function is named 'rwvt()'</t>
-  </si>
-  <si>
-    <t>Check if function accepts 'audio' argument</t>
-  </si>
-  <si>
-    <t>Provide a valid WAV file</t>
-  </si>
-  <si>
-    <t>Provide a valid MP3 file</t>
-  </si>
-  <si>
-    <t>Provide an unsupported file format</t>
-  </si>
-  <si>
-    <t>Provide a corrupted WAV file</t>
-  </si>
-  <si>
-    <t>Provide an empty audio file</t>
-  </si>
-  <si>
-    <t>Provide a valid audio file with speech</t>
-  </si>
-  <si>
-    <t>Provide audio with background noise</t>
-  </si>
-  <si>
-    <t>Provide audio with multiple speakers</t>
-  </si>
-  <si>
-    <t>Provide a long-duration audio file</t>
-  </si>
-  <si>
-    <t>Provide a short-duration audio file</t>
-  </si>
-  <si>
-    <t>Provide speech with special characters</t>
-  </si>
-  <si>
-    <t>Provide audio with different accents</t>
-  </si>
-  <si>
-    <t>Provide speech with pauses</t>
-  </si>
-  <si>
-    <t>Verify response JSON structure</t>
-  </si>
-  <si>
-    <t>Verify log entries for processing</t>
-  </si>
-  <si>
     <t>Function should be named 'rwvt()'</t>
   </si>
   <si>
@@ -190,9 +136,6 @@
     <t>Response JSON contains 'status', 'error_reason', and 'transcription' fields</t>
   </si>
   <si>
-    <t>Log entries recorded in VTT_log.txt</t>
-  </si>
-  <si>
     <t>✅ Function name is 'rwvt()'</t>
   </si>
   <si>
@@ -235,9 +178,6 @@
     <t>✅ JSON response contains required fields</t>
   </si>
   <si>
-    <t>✅ Logging implemented in 'VTT_log.txt'</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
@@ -295,9 +235,6 @@
     <t>RWS_VTT_00016</t>
   </si>
   <si>
-    <t>RWS_VTT_00017</t>
-  </si>
-  <si>
     <t>RWST_VTT_00001</t>
   </si>
   <si>
@@ -346,7 +283,82 @@
     <t>RWST_VTT_00016</t>
   </si>
   <si>
-    <t>RWST_VTT_00017</t>
+    <t>Step 1: Open the voice_to_text.py file.
+Step 2: Check the function name defined in the file.
+Step 3: Verify if the function is named rwvt().</t>
+  </si>
+  <si>
+    <t>Step 1: Call the rwvt() function with an argument.
+Step 2: Check whether the function accepts audio as an argument.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a valid .wav audio file.
+Step 2: Pass the file to the function.
+Step 3: Verify that the function correctly processes the .wav file.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a valid .mp3 audio file.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function rejects the .mp3 format.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an unsupported file format (e.g., .flac, .ogg).
+Step 2: Pass the file to the function.
+Step 3: Check if the function correctly detects the unsupported format.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a corrupted .wav file.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function correctly detects the corruption.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an empty .wav audio file.
+Step 2: Pass the file to the function.
+Step 3: Check if the function detects an empty file.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a valid .wav file with clear speech.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function successfully converts speech to text.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an audio file with significant background noise.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function filters the noise and transcribes speech.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an audio file containing multiple speakers.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function differentiates between speakers.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a long .wav audio file (e.g., more than 5 minutes).
+Step 2: Pass the file to the function.
+Step 3: Ensure the function successfully processes the long file.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide a short .wav file (e.g., less than 2 seconds).
+Step 2: Pass the file to the function.
+Step 3: Ensure the function successfully transcribes short speech.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an audio file with special characters (e.g., $#@!%).
+Step 2: Pass the file to the function.
+Step 3: Verify if the function includes special characters in transcription.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an audio file with various accents.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function maintains transcription accuracy.</t>
+  </si>
+  <si>
+    <t>Step 1: Provide an audio file with natural pauses in speech.
+Step 2: Pass the file to the function.
+Step 3: Verify if the function includes punctuation.</t>
+  </si>
+  <si>
+    <t>Step 1: Call the function with a valid .wav file.
+Step 2: Verify the response structure.</t>
   </si>
 </sst>
 </file>
@@ -411,16 +423,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -464,17 +503,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1A49516-F440-41CC-B84A-54478E9A40BC}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1A49516-F440-41CC-B84A-54478E9A40BC}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:H18" xr:uid="{F1A49516-F440-41CC-B84A-54478E9A40BC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C10FFB67-ED81-4A22-9D0D-22845E66FB61}" name="Requirement ID"/>
-    <tableColumn id="2" xr3:uid="{8302F72D-D8B0-4283-A780-CB88EE734F8C}" name="Testcase ID"/>
-    <tableColumn id="3" xr3:uid="{51EFA64E-4803-4AF8-9C28-50FA8D055D09}" name="Test Function Name"/>
+    <tableColumn id="1" xr3:uid="{C10FFB67-ED81-4A22-9D0D-22845E66FB61}" name="Requirement ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8302F72D-D8B0-4283-A780-CB88EE734F8C}" name="Testcase ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{51EFA64E-4803-4AF8-9C28-50FA8D055D09}" name="Test Function Name" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{04B6AA6F-A221-4678-A191-292F88F644BF}" name="Test Steps"/>
-    <tableColumn id="5" xr3:uid="{1ED14D14-9158-496A-BEB6-C8F369DB2339}" name="Expected Output"/>
-    <tableColumn id="6" xr3:uid="{C28D67B9-558D-46DC-A7B3-81E6E54DE5F4}" name="Actual Output"/>
-    <tableColumn id="7" xr3:uid="{2E8D23DC-D8F7-4556-893D-D31E88F1BA12}" name="Status"/>
-    <tableColumn id="8" xr3:uid="{187A9221-CD86-4ABE-A246-91EFA116B5EF}" name="Comments"/>
+    <tableColumn id="5" xr3:uid="{1ED14D14-9158-496A-BEB6-C8F369DB2339}" name="Expected Output" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C28D67B9-558D-46DC-A7B3-81E6E54DE5F4}" name="Actual Output" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2E8D23DC-D8F7-4556-893D-D31E88F1BA12}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{187A9221-CD86-4ABE-A246-91EFA116B5EF}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +809,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,399 +847,401 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
